--- a/data/trans_orig/P43-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P43-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B047BFEF-3261-4618-B9E7-CDAFF1D82330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E4F84989-4087-4101-B90E-03AFA40D153E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3D5C9238-775F-4983-A998-0F7F54F36F35}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{30D1B152-D2CA-4A94-99B0-4C67615AD47E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -80,10 +80,10 @@
     <t>49,09%</t>
   </si>
   <si>
-    <t>40,43%</t>
-  </si>
-  <si>
-    <t>58,15%</t>
+    <t>40,69%</t>
+  </si>
+  <si>
+    <t>57,58%</t>
   </si>
   <si>
     <t>No</t>
@@ -92,10 +92,10 @@
     <t>50,91%</t>
   </si>
   <si>
-    <t>41,85%</t>
-  </si>
-  <si>
-    <t>59,57%</t>
+    <t>42,42%</t>
+  </si>
+  <si>
+    <t>59,31%</t>
   </si>
   <si>
     <t>100%</t>
@@ -107,19 +107,19 @@
     <t>33,02%</t>
   </si>
   <si>
-    <t>29,5%</t>
-  </si>
-  <si>
-    <t>36,91%</t>
+    <t>29,07%</t>
+  </si>
+  <si>
+    <t>37,3%</t>
   </si>
   <si>
     <t>66,98%</t>
   </si>
   <si>
-    <t>63,09%</t>
-  </si>
-  <si>
-    <t>70,5%</t>
+    <t>62,7%</t>
+  </si>
+  <si>
+    <t>70,93%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -128,19 +128,19 @@
     <t>35,38%</t>
   </si>
   <si>
-    <t>32,26%</t>
-  </si>
-  <si>
-    <t>38,5%</t>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>38,72%</t>
   </si>
   <si>
     <t>64,62%</t>
   </si>
   <si>
-    <t>61,5%</t>
-  </si>
-  <si>
-    <t>67,74%</t>
+    <t>61,28%</t>
+  </si>
+  <si>
+    <t>67,55%</t>
   </si>
   <si>
     <t>mas de 50</t>
@@ -149,19 +149,19 @@
     <t>38,93%</t>
   </si>
   <si>
-    <t>35,42%</t>
-  </si>
-  <si>
-    <t>43,14%</t>
+    <t>35,35%</t>
+  </si>
+  <si>
+    <t>42,3%</t>
   </si>
   <si>
     <t>61,07%</t>
   </si>
   <si>
-    <t>56,86%</t>
-  </si>
-  <si>
-    <t>64,58%</t>
+    <t>57,7%</t>
+  </si>
+  <si>
+    <t>64,65%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -170,37 +170,37 @@
     <t>41,08%</t>
   </si>
   <si>
-    <t>37,75%</t>
-  </si>
-  <si>
-    <t>44,38%</t>
+    <t>38,15%</t>
+  </si>
+  <si>
+    <t>44,43%</t>
   </si>
   <si>
     <t>58,92%</t>
   </si>
   <si>
-    <t>55,62%</t>
-  </si>
-  <si>
-    <t>62,25%</t>
+    <t>55,57%</t>
+  </si>
+  <si>
+    <t>61,85%</t>
   </si>
   <si>
     <t>37,91%</t>
   </si>
   <si>
-    <t>36,16%</t>
-  </si>
-  <si>
-    <t>39,59%</t>
+    <t>36,32%</t>
+  </si>
+  <si>
+    <t>39,61%</t>
   </si>
   <si>
     <t>62,09%</t>
   </si>
   <si>
-    <t>60,41%</t>
-  </si>
-  <si>
-    <t>63,84%</t>
+    <t>60,39%</t>
+  </si>
+  <si>
+    <t>63,68%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -212,214 +212,214 @@
     <t>58,95%</t>
   </si>
   <si>
-    <t>49,52%</t>
-  </si>
-  <si>
-    <t>67,9%</t>
+    <t>48,83%</t>
+  </si>
+  <si>
+    <t>67,52%</t>
   </si>
   <si>
     <t>41,05%</t>
   </si>
   <si>
-    <t>32,1%</t>
-  </si>
-  <si>
-    <t>50,48%</t>
+    <t>32,48%</t>
+  </si>
+  <si>
+    <t>51,17%</t>
   </si>
   <si>
     <t>45,13%</t>
   </si>
   <si>
-    <t>41,21%</t>
-  </si>
-  <si>
-    <t>49,34%</t>
+    <t>41,19%</t>
+  </si>
+  <si>
+    <t>49,4%</t>
   </si>
   <si>
     <t>54,87%</t>
   </si>
   <si>
-    <t>50,66%</t>
-  </si>
-  <si>
-    <t>58,79%</t>
+    <t>50,6%</t>
+  </si>
+  <si>
+    <t>58,81%</t>
   </si>
   <si>
     <t>45,27%</t>
   </si>
   <si>
-    <t>41,91%</t>
-  </si>
-  <si>
-    <t>48,27%</t>
+    <t>42,06%</t>
+  </si>
+  <si>
+    <t>48,62%</t>
   </si>
   <si>
     <t>54,73%</t>
   </si>
   <si>
-    <t>51,73%</t>
-  </si>
-  <si>
-    <t>58,09%</t>
+    <t>51,38%</t>
+  </si>
+  <si>
+    <t>57,94%</t>
   </si>
   <si>
     <t>47,89%</t>
   </si>
   <si>
-    <t>44,11%</t>
-  </si>
-  <si>
-    <t>51,29%</t>
+    <t>44,17%</t>
+  </si>
+  <si>
+    <t>51,68%</t>
   </si>
   <si>
     <t>52,11%</t>
   </si>
   <si>
-    <t>48,71%</t>
-  </si>
-  <si>
-    <t>55,89%</t>
+    <t>48,32%</t>
+  </si>
+  <si>
+    <t>55,83%</t>
   </si>
   <si>
     <t>48,29%</t>
   </si>
   <si>
-    <t>45,41%</t>
+    <t>45,33%</t>
+  </si>
+  <si>
+    <t>51,53%</t>
+  </si>
+  <si>
+    <t>51,71%</t>
+  </si>
+  <si>
+    <t>48,47%</t>
+  </si>
+  <si>
+    <t>54,67%</t>
+  </si>
+  <si>
+    <t>47,14%</t>
+  </si>
+  <si>
+    <t>45,4%</t>
+  </si>
+  <si>
+    <t>48,96%</t>
+  </si>
+  <si>
+    <t>52,86%</t>
+  </si>
+  <si>
+    <t>51,04%</t>
+  </si>
+  <si>
+    <t>54,6%</t>
+  </si>
+  <si>
+    <t>Población según si le han realizado alguna vez una mamografía por prescripción de algún especialista en 2015 (Tasa respuesta: 50,46%)</t>
+  </si>
+  <si>
+    <t>50,62%</t>
+  </si>
+  <si>
+    <t>41,89%</t>
+  </si>
+  <si>
+    <t>60,0%</t>
+  </si>
+  <si>
+    <t>49,38%</t>
+  </si>
+  <si>
+    <t>40,0%</t>
+  </si>
+  <si>
+    <t>58,11%</t>
+  </si>
+  <si>
+    <t>49,88%</t>
+  </si>
+  <si>
+    <t>45,09%</t>
+  </si>
+  <si>
+    <t>54,13%</t>
+  </si>
+  <si>
+    <t>50,12%</t>
+  </si>
+  <si>
+    <t>45,87%</t>
+  </si>
+  <si>
+    <t>54,91%</t>
+  </si>
+  <si>
+    <t>52,55%</t>
+  </si>
+  <si>
+    <t>49,27%</t>
+  </si>
+  <si>
+    <t>47,45%</t>
+  </si>
+  <si>
+    <t>50,73%</t>
+  </si>
+  <si>
+    <t>43,76%</t>
+  </si>
+  <si>
+    <t>40,5%</t>
+  </si>
+  <si>
+    <t>47,3%</t>
+  </si>
+  <si>
+    <t>56,24%</t>
+  </si>
+  <si>
+    <t>52,7%</t>
+  </si>
+  <si>
+    <t>59,5%</t>
+  </si>
+  <si>
+    <t>51,91%</t>
+  </si>
+  <si>
+    <t>48,61%</t>
+  </si>
+  <si>
+    <t>55,33%</t>
+  </si>
+  <si>
+    <t>48,09%</t>
+  </si>
+  <si>
+    <t>44,67%</t>
   </si>
   <si>
     <t>51,39%</t>
   </si>
   <si>
-    <t>51,71%</t>
-  </si>
-  <si>
-    <t>48,61%</t>
-  </si>
-  <si>
-    <t>54,59%</t>
-  </si>
-  <si>
-    <t>47,14%</t>
-  </si>
-  <si>
-    <t>45,56%</t>
-  </si>
-  <si>
-    <t>48,86%</t>
-  </si>
-  <si>
-    <t>52,86%</t>
-  </si>
-  <si>
-    <t>51,14%</t>
-  </si>
-  <si>
-    <t>54,44%</t>
-  </si>
-  <si>
-    <t>Población según si le han realizado alguna vez una mamografía por prescripción de algún especialista en 2015 (Tasa respuesta: 50,46%)</t>
-  </si>
-  <si>
-    <t>50,62%</t>
-  </si>
-  <si>
-    <t>41,5%</t>
-  </si>
-  <si>
-    <t>58,69%</t>
-  </si>
-  <si>
-    <t>49,38%</t>
-  </si>
-  <si>
-    <t>41,31%</t>
-  </si>
-  <si>
-    <t>58,5%</t>
-  </si>
-  <si>
-    <t>49,88%</t>
-  </si>
-  <si>
-    <t>45,95%</t>
-  </si>
-  <si>
-    <t>54,18%</t>
-  </si>
-  <si>
-    <t>50,12%</t>
-  </si>
-  <si>
-    <t>45,82%</t>
-  </si>
-  <si>
-    <t>54,05%</t>
-  </si>
-  <si>
-    <t>52,55%</t>
-  </si>
-  <si>
-    <t>49,53%</t>
-  </si>
-  <si>
-    <t>55,67%</t>
-  </si>
-  <si>
-    <t>47,45%</t>
-  </si>
-  <si>
-    <t>44,33%</t>
-  </si>
-  <si>
-    <t>50,47%</t>
-  </si>
-  <si>
-    <t>43,76%</t>
-  </si>
-  <si>
-    <t>40,29%</t>
-  </si>
-  <si>
-    <t>47,66%</t>
-  </si>
-  <si>
-    <t>56,24%</t>
-  </si>
-  <si>
-    <t>52,34%</t>
-  </si>
-  <si>
-    <t>59,71%</t>
-  </si>
-  <si>
-    <t>51,91%</t>
-  </si>
-  <si>
-    <t>48,85%</t>
-  </si>
-  <si>
-    <t>55,39%</t>
-  </si>
-  <si>
-    <t>48,09%</t>
-  </si>
-  <si>
-    <t>44,61%</t>
-  </si>
-  <si>
-    <t>51,15%</t>
-  </si>
-  <si>
     <t>49,93%</t>
   </si>
   <si>
-    <t>48,24%</t>
+    <t>48,3%</t>
+  </si>
+  <si>
+    <t>51,82%</t>
   </si>
   <si>
     <t>50,07%</t>
   </si>
   <si>
-    <t>51,76%</t>
+    <t>48,18%</t>
+  </si>
+  <si>
+    <t>51,7%</t>
   </si>
   <si>
     <t>Población según si le han realizado alguna vez una mamografía por prescripción de algún especialista en 2023 (Tasa respuesta: 46,09%)</t>
@@ -428,103 +428,103 @@
     <t>55,65%</t>
   </si>
   <si>
-    <t>46,1%</t>
-  </si>
-  <si>
-    <t>64,16%</t>
+    <t>46,08%</t>
+  </si>
+  <si>
+    <t>64,18%</t>
   </si>
   <si>
     <t>44,35%</t>
   </si>
   <si>
-    <t>35,84%</t>
-  </si>
-  <si>
-    <t>53,9%</t>
+    <t>35,82%</t>
+  </si>
+  <si>
+    <t>53,92%</t>
   </si>
   <si>
     <t>52,0%</t>
   </si>
   <si>
-    <t>48,28%</t>
-  </si>
-  <si>
-    <t>56,15%</t>
+    <t>56,18%</t>
   </si>
   <si>
     <t>48,0%</t>
   </si>
   <si>
-    <t>43,85%</t>
-  </si>
-  <si>
-    <t>51,72%</t>
+    <t>43,82%</t>
   </si>
   <si>
     <t>48,51%</t>
   </si>
   <si>
-    <t>45,25%</t>
-  </si>
-  <si>
-    <t>51,61%</t>
+    <t>45,44%</t>
+  </si>
+  <si>
+    <t>51,75%</t>
   </si>
   <si>
     <t>51,49%</t>
   </si>
   <si>
-    <t>48,39%</t>
-  </si>
-  <si>
-    <t>54,75%</t>
+    <t>48,25%</t>
+  </si>
+  <si>
+    <t>54,56%</t>
   </si>
   <si>
     <t>62,57%</t>
   </si>
   <si>
-    <t>53,54%</t>
-  </si>
-  <si>
-    <t>79,24%</t>
+    <t>53,68%</t>
+  </si>
+  <si>
+    <t>78,1%</t>
   </si>
   <si>
     <t>37,43%</t>
   </si>
   <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>46,46%</t>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>46,32%</t>
   </si>
   <si>
     <t>54,86%</t>
   </si>
   <si>
-    <t>50,95%</t>
-  </si>
-  <si>
-    <t>58,53%</t>
+    <t>50,68%</t>
+  </si>
+  <si>
+    <t>58,75%</t>
   </si>
   <si>
     <t>45,14%</t>
   </si>
   <si>
-    <t>41,47%</t>
-  </si>
-  <si>
-    <t>49,05%</t>
+    <t>41,25%</t>
+  </si>
+  <si>
+    <t>49,32%</t>
   </si>
   <si>
     <t>54,4%</t>
   </si>
   <si>
-    <t>60,6%</t>
+    <t>51,81%</t>
+  </si>
+  <si>
+    <t>59,81%</t>
   </si>
   <si>
     <t>45,6%</t>
   </si>
   <si>
-    <t>39,4%</t>
+    <t>40,19%</t>
+  </si>
+  <si>
+    <t>48,19%</t>
   </si>
 </sst>
 </file>
@@ -936,7 +936,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAC06A45-B24D-4D16-AE20-6D8F2A6A20FB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77F321EC-8798-4081-9104-D021ACFDC457}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1963,7 +1963,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58AC7F0A-F596-45A7-9F32-D82331EB811C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F243C06D-7703-4213-9186-9063FE40F5F6}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2990,7 +2990,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45FB249F-B363-461C-95C1-33BA9B11FAA9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D802695-3598-418F-8B1D-AC135BF8FD55}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3431,7 +3431,7 @@
         <v>106</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>107</v>
+        <v>46</v>
       </c>
       <c r="M10" s="7">
         <v>493</v>
@@ -3446,7 +3446,7 @@
         <v>106</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>107</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3474,13 +3474,13 @@
         <v>490717</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="M11" s="7">
         <v>476</v>
@@ -3489,13 +3489,13 @@
         <v>490717</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3574,13 +3574,13 @@
         <v>342091</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M13" s="7">
         <v>309</v>
@@ -3589,13 +3589,13 @@
         <v>342091</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3623,13 +3623,13 @@
         <v>439617</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="M14" s="7">
         <v>424</v>
@@ -3638,13 +3638,13 @@
         <v>439617</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3723,13 +3723,13 @@
         <v>537442</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M16" s="7">
         <v>474</v>
@@ -3738,13 +3738,13 @@
         <v>537442</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3772,13 +3772,13 @@
         <v>497943</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M17" s="7">
         <v>477</v>
@@ -3787,13 +3787,13 @@
         <v>497943</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3872,13 +3872,13 @@
         <v>1757300</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="M19" s="7">
         <v>1595</v>
@@ -3887,13 +3887,13 @@
         <v>1757300</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3921,10 +3921,10 @@
         <v>1762390</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>126</v>
@@ -3936,10 +3936,10 @@
         <v>1762390</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>126</v>
@@ -4017,7 +4017,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24F5E083-F255-46BA-B055-0E61C3919A6C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75CF862A-3A2E-4210-B225-C53F39ED65E3}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4306,10 +4306,10 @@
         <v>134</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="M7" s="7">
         <v>478</v>
@@ -4321,10 +4321,10 @@
         <v>134</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4352,13 +4352,13 @@
         <v>220136</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>138</v>
-      </c>
       <c r="L8" s="7" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="M8" s="7">
         <v>297</v>
@@ -4367,13 +4367,13 @@
         <v>220136</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="P8" s="7" t="s">
-        <v>138</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4452,13 +4452,13 @@
         <v>395437</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="M10" s="7">
         <v>677</v>
@@ -4467,13 +4467,13 @@
         <v>395437</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4501,13 +4501,13 @@
         <v>419670</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="M11" s="7">
         <v>498</v>
@@ -4516,13 +4516,13 @@
         <v>419670</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4601,13 +4601,13 @@
         <v>410350</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M13" s="7">
         <v>438</v>
@@ -4616,13 +4616,13 @@
         <v>410350</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4650,13 +4650,13 @@
         <v>245436</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="M14" s="7">
         <v>295</v>
@@ -4665,13 +4665,13 @@
         <v>245436</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4750,13 +4750,13 @@
         <v>488687</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="M16" s="7">
         <v>765</v>
@@ -4765,13 +4765,13 @@
         <v>488687</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4799,13 +4799,13 @@
         <v>402066</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M17" s="7">
         <v>412</v>
@@ -4814,13 +4814,13 @@
         <v>402066</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4899,13 +4899,13 @@
         <v>1582967</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="M19" s="7">
         <v>2467</v>
@@ -4914,13 +4914,13 @@
         <v>1582967</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4948,13 +4948,13 @@
         <v>1327161</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="M20" s="7">
         <v>1563</v>
@@ -4963,13 +4963,13 @@
         <v>1327161</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P43-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P43-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E4F84989-4087-4101-B90E-03AFA40D153E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{64079B56-F7BF-4169-BEAB-4B10B1255B49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{30D1B152-D2CA-4A94-99B0-4C67615AD47E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{28464936-211C-478D-AD57-CE77E80889CD}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="160">
   <si>
     <t>Población según si le han realizado alguna vez una mamografía por prescripción de algún especialista en 2007 (Tasa respuesta: 50,33%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Si</t>
@@ -80,10 +80,10 @@
     <t>49,09%</t>
   </si>
   <si>
-    <t>40,69%</t>
-  </si>
-  <si>
-    <t>57,58%</t>
+    <t>40,45%</t>
+  </si>
+  <si>
+    <t>57,64%</t>
   </si>
   <si>
     <t>No</t>
@@ -92,76 +92,76 @@
     <t>50,91%</t>
   </si>
   <si>
-    <t>42,42%</t>
-  </si>
-  <si>
-    <t>59,31%</t>
+    <t>42,36%</t>
+  </si>
+  <si>
+    <t>59,55%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>33,02%</t>
   </si>
   <si>
-    <t>29,07%</t>
-  </si>
-  <si>
-    <t>37,3%</t>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>37,09%</t>
   </si>
   <si>
     <t>66,98%</t>
   </si>
   <si>
-    <t>62,7%</t>
-  </si>
-  <si>
-    <t>70,93%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>62,91%</t>
+  </si>
+  <si>
+    <t>70,83%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>35,38%</t>
   </si>
   <si>
-    <t>32,45%</t>
-  </si>
-  <si>
-    <t>38,72%</t>
+    <t>32,37%</t>
+  </si>
+  <si>
+    <t>38,58%</t>
   </si>
   <si>
     <t>64,62%</t>
   </si>
   <si>
-    <t>61,28%</t>
-  </si>
-  <si>
-    <t>67,55%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>61,42%</t>
+  </si>
+  <si>
+    <t>67,63%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>38,93%</t>
   </si>
   <si>
-    <t>35,35%</t>
-  </si>
-  <si>
-    <t>42,3%</t>
+    <t>35,33%</t>
+  </si>
+  <si>
+    <t>43,22%</t>
   </si>
   <si>
     <t>61,07%</t>
   </si>
   <si>
-    <t>57,7%</t>
-  </si>
-  <si>
-    <t>64,65%</t>
+    <t>56,78%</t>
+  </si>
+  <si>
+    <t>64,67%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -170,37 +170,37 @@
     <t>41,08%</t>
   </si>
   <si>
-    <t>38,15%</t>
-  </si>
-  <si>
-    <t>44,43%</t>
+    <t>37,96%</t>
+  </si>
+  <si>
+    <t>44,14%</t>
   </si>
   <si>
     <t>58,92%</t>
   </si>
   <si>
-    <t>55,57%</t>
-  </si>
-  <si>
-    <t>61,85%</t>
+    <t>55,86%</t>
+  </si>
+  <si>
+    <t>62,04%</t>
   </si>
   <si>
     <t>37,91%</t>
   </si>
   <si>
-    <t>36,32%</t>
-  </si>
-  <si>
-    <t>39,61%</t>
+    <t>36,24%</t>
+  </si>
+  <si>
+    <t>39,42%</t>
   </si>
   <si>
     <t>62,09%</t>
   </si>
   <si>
-    <t>60,39%</t>
-  </si>
-  <si>
-    <t>63,68%</t>
+    <t>60,58%</t>
+  </si>
+  <si>
+    <t>63,76%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -212,259 +212,253 @@
     <t>58,95%</t>
   </si>
   <si>
-    <t>48,83%</t>
-  </si>
-  <si>
-    <t>67,52%</t>
+    <t>48,58%</t>
+  </si>
+  <si>
+    <t>68,26%</t>
   </si>
   <si>
     <t>41,05%</t>
   </si>
   <si>
-    <t>32,48%</t>
-  </si>
-  <si>
-    <t>51,17%</t>
+    <t>31,74%</t>
+  </si>
+  <si>
+    <t>51,42%</t>
   </si>
   <si>
     <t>45,13%</t>
   </si>
   <si>
-    <t>41,19%</t>
-  </si>
-  <si>
-    <t>49,4%</t>
+    <t>41,01%</t>
+  </si>
+  <si>
+    <t>49,47%</t>
   </si>
   <si>
     <t>54,87%</t>
   </si>
   <si>
-    <t>50,6%</t>
-  </si>
-  <si>
-    <t>58,81%</t>
+    <t>50,53%</t>
+  </si>
+  <si>
+    <t>58,99%</t>
   </si>
   <si>
     <t>45,27%</t>
   </si>
   <si>
-    <t>42,06%</t>
-  </si>
-  <si>
-    <t>48,62%</t>
+    <t>41,99%</t>
+  </si>
+  <si>
+    <t>48,42%</t>
   </si>
   <si>
     <t>54,73%</t>
   </si>
   <si>
-    <t>51,38%</t>
-  </si>
-  <si>
-    <t>57,94%</t>
+    <t>51,58%</t>
+  </si>
+  <si>
+    <t>58,01%</t>
   </si>
   <si>
     <t>47,89%</t>
   </si>
   <si>
-    <t>44,17%</t>
-  </si>
-  <si>
-    <t>51,68%</t>
+    <t>43,82%</t>
+  </si>
+  <si>
+    <t>51,49%</t>
   </si>
   <si>
     <t>52,11%</t>
   </si>
   <si>
-    <t>48,32%</t>
-  </si>
-  <si>
-    <t>55,83%</t>
+    <t>48,51%</t>
+  </si>
+  <si>
+    <t>56,18%</t>
   </si>
   <si>
     <t>48,29%</t>
   </si>
   <si>
-    <t>45,33%</t>
-  </si>
-  <si>
-    <t>51,53%</t>
+    <t>45,35%</t>
+  </si>
+  <si>
+    <t>51,59%</t>
   </si>
   <si>
     <t>51,71%</t>
   </si>
   <si>
-    <t>48,47%</t>
-  </si>
-  <si>
-    <t>54,67%</t>
+    <t>48,41%</t>
+  </si>
+  <si>
+    <t>54,65%</t>
   </si>
   <si>
     <t>47,14%</t>
   </si>
   <si>
-    <t>45,4%</t>
-  </si>
-  <si>
-    <t>48,96%</t>
+    <t>45,36%</t>
+  </si>
+  <si>
+    <t>48,81%</t>
   </si>
   <si>
     <t>52,86%</t>
   </si>
   <si>
-    <t>51,04%</t>
-  </si>
-  <si>
-    <t>54,6%</t>
-  </si>
-  <si>
-    <t>Población según si le han realizado alguna vez una mamografía por prescripción de algún especialista en 2015 (Tasa respuesta: 50,46%)</t>
+    <t>51,19%</t>
+  </si>
+  <si>
+    <t>54,64%</t>
+  </si>
+  <si>
+    <t>Población según si le han realizado alguna vez una mamografía por prescripción de algún especialista en 2016 (Tasa respuesta: 50,46%)</t>
   </si>
   <si>
     <t>50,62%</t>
   </si>
   <si>
-    <t>41,89%</t>
-  </si>
-  <si>
-    <t>60,0%</t>
+    <t>60,4%</t>
   </si>
   <si>
     <t>49,38%</t>
   </si>
   <si>
-    <t>40,0%</t>
-  </si>
-  <si>
-    <t>58,11%</t>
+    <t>39,6%</t>
   </si>
   <si>
     <t>49,88%</t>
   </si>
   <si>
-    <t>45,09%</t>
-  </si>
-  <si>
-    <t>54,13%</t>
+    <t>45,83%</t>
+  </si>
+  <si>
+    <t>54,16%</t>
   </si>
   <si>
     <t>50,12%</t>
   </si>
   <si>
-    <t>45,87%</t>
-  </si>
-  <si>
-    <t>54,91%</t>
+    <t>45,84%</t>
+  </si>
+  <si>
+    <t>54,17%</t>
   </si>
   <si>
     <t>52,55%</t>
   </si>
   <si>
-    <t>49,27%</t>
+    <t>49,72%</t>
+  </si>
+  <si>
+    <t>55,95%</t>
   </si>
   <si>
     <t>47,45%</t>
   </si>
   <si>
-    <t>50,73%</t>
+    <t>44,05%</t>
+  </si>
+  <si>
+    <t>50,28%</t>
   </si>
   <si>
     <t>43,76%</t>
   </si>
   <si>
-    <t>40,5%</t>
-  </si>
-  <si>
-    <t>47,3%</t>
+    <t>40,41%</t>
+  </si>
+  <si>
+    <t>47,51%</t>
   </si>
   <si>
     <t>56,24%</t>
   </si>
   <si>
-    <t>52,7%</t>
-  </si>
-  <si>
-    <t>59,5%</t>
+    <t>52,49%</t>
+  </si>
+  <si>
+    <t>59,59%</t>
   </si>
   <si>
     <t>51,91%</t>
   </si>
   <si>
-    <t>48,61%</t>
-  </si>
-  <si>
-    <t>55,33%</t>
+    <t>48,7%</t>
+  </si>
+  <si>
+    <t>55,13%</t>
   </si>
   <si>
     <t>48,09%</t>
   </si>
   <si>
-    <t>44,67%</t>
-  </si>
-  <si>
-    <t>51,39%</t>
+    <t>44,87%</t>
+  </si>
+  <si>
+    <t>51,3%</t>
   </si>
   <si>
     <t>49,93%</t>
   </si>
   <si>
+    <t>48,11%</t>
+  </si>
+  <si>
+    <t>51,61%</t>
+  </si>
+  <si>
+    <t>50,07%</t>
+  </si>
+  <si>
+    <t>48,39%</t>
+  </si>
+  <si>
+    <t>51,89%</t>
+  </si>
+  <si>
+    <t>Población según si le han realizado alguna vez una mamografía por prescripción de algún especialista en 2023 (Tasa respuesta: 46,09%)</t>
+  </si>
+  <si>
+    <t>55,65%</t>
+  </si>
+  <si>
+    <t>46,08%</t>
+  </si>
+  <si>
+    <t>64,18%</t>
+  </si>
+  <si>
+    <t>44,35%</t>
+  </si>
+  <si>
+    <t>35,82%</t>
+  </si>
+  <si>
+    <t>53,92%</t>
+  </si>
+  <si>
+    <t>52,0%</t>
+  </si>
+  <si>
     <t>48,3%</t>
   </si>
   <si>
-    <t>51,82%</t>
-  </si>
-  <si>
-    <t>50,07%</t>
-  </si>
-  <si>
-    <t>48,18%</t>
+    <t>48,0%</t>
   </si>
   <si>
     <t>51,7%</t>
   </si>
   <si>
-    <t>Población según si le han realizado alguna vez una mamografía por prescripción de algún especialista en 2023 (Tasa respuesta: 46,09%)</t>
-  </si>
-  <si>
-    <t>55,65%</t>
-  </si>
-  <si>
-    <t>46,08%</t>
-  </si>
-  <si>
-    <t>64,18%</t>
-  </si>
-  <si>
-    <t>44,35%</t>
-  </si>
-  <si>
-    <t>35,82%</t>
-  </si>
-  <si>
-    <t>53,92%</t>
-  </si>
-  <si>
-    <t>52,0%</t>
-  </si>
-  <si>
-    <t>56,18%</t>
-  </si>
-  <si>
-    <t>48,0%</t>
-  </si>
-  <si>
-    <t>43,82%</t>
-  </si>
-  <si>
-    <t>48,51%</t>
-  </si>
-  <si>
     <t>45,44%</t>
   </si>
   <si>
     <t>51,75%</t>
-  </si>
-  <si>
-    <t>51,49%</t>
   </si>
   <si>
     <t>48,25%</t>
@@ -936,7 +930,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77F321EC-8798-4081-9104-D021ACFDC457}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F248AF97-788D-4C1F-9473-F6617B85052A}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1963,7 +1957,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F243C06D-7703-4213-9186-9063FE40F5F6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B56DF487-0C56-4DA7-8FF9-3A699ECF5F5D}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2444,7 +2438,7 @@
         <v>514</v>
       </c>
       <c r="I11" s="7">
-        <v>560969</v>
+        <v>560968</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>71</v>
@@ -2459,7 +2453,7 @@
         <v>514</v>
       </c>
       <c r="N11" s="7">
-        <v>560969</v>
+        <v>560968</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>71</v>
@@ -2493,7 +2487,7 @@
         <v>933</v>
       </c>
       <c r="I12" s="7">
-        <v>1024898</v>
+        <v>1024897</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -2508,7 +2502,7 @@
         <v>933</v>
       </c>
       <c r="N12" s="7">
-        <v>1024898</v>
+        <v>1024897</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -2990,7 +2984,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D802695-3598-418F-8B1D-AC135BF8FD55}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D413B17A-3CA8-46AB-9A95-4E2573FB58FC}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3130,10 +3124,10 @@
         <v>93</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="M4" s="7">
         <v>56</v>
@@ -3145,10 +3139,10 @@
         <v>93</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3176,13 +3170,13 @@
         <v>55983</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="K5" s="7" t="s">
-        <v>97</v>
-      </c>
       <c r="L5" s="7" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="M5" s="7">
         <v>59</v>
@@ -3191,13 +3185,13 @@
         <v>55983</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="P5" s="7" t="s">
-        <v>97</v>
-      </c>
       <c r="Q5" s="7" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3276,13 +3270,13 @@
         <v>276838</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="M7" s="7">
         <v>263</v>
@@ -3291,13 +3285,13 @@
         <v>276838</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3325,13 +3319,13 @@
         <v>278130</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="M8" s="7">
         <v>284</v>
@@ -3340,13 +3334,13 @@
         <v>278130</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3425,13 +3419,13 @@
         <v>543552</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M10" s="7">
         <v>493</v>
@@ -3440,13 +3434,13 @@
         <v>543552</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3474,10 +3468,10 @@
         <v>490717</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>108</v>
@@ -3489,10 +3483,10 @@
         <v>490717</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>108</v>
@@ -4017,7 +4011,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75CF862A-3A2E-4210-B225-C53F39ED65E3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15966629-5322-4476-BA78-0B4A5A55E879}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4306,10 +4300,10 @@
         <v>134</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="M7" s="7">
         <v>478</v>
@@ -4321,10 +4315,10 @@
         <v>134</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>135</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4355,10 +4349,10 @@
         <v>136</v>
       </c>
       <c r="K8" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="M8" s="7">
         <v>297</v>
@@ -4370,10 +4364,10 @@
         <v>136</v>
       </c>
       <c r="P8" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4452,13 +4446,13 @@
         <v>395437</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="M10" s="7">
         <v>677</v>
@@ -4467,13 +4461,13 @@
         <v>395437</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4501,13 +4495,13 @@
         <v>419670</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="M11" s="7">
         <v>498</v>
@@ -4516,13 +4510,13 @@
         <v>419670</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4601,13 +4595,13 @@
         <v>410350</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="M13" s="7">
         <v>438</v>
@@ -4616,13 +4610,13 @@
         <v>410350</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4650,13 +4644,13 @@
         <v>245436</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="M14" s="7">
         <v>295</v>
@@ -4665,13 +4659,13 @@
         <v>245436</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4750,13 +4744,13 @@
         <v>488687</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="M16" s="7">
         <v>765</v>
@@ -4765,13 +4759,13 @@
         <v>488687</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4799,13 +4793,13 @@
         <v>402066</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="M17" s="7">
         <v>412</v>
@@ -4814,13 +4808,13 @@
         <v>402066</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4899,13 +4893,13 @@
         <v>1582967</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="M19" s="7">
         <v>2467</v>
@@ -4914,13 +4908,13 @@
         <v>1582967</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4948,13 +4942,13 @@
         <v>1327161</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="M20" s="7">
         <v>1563</v>
@@ -4963,13 +4957,13 @@
         <v>1327161</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P43-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P43-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{64079B56-F7BF-4169-BEAB-4B10B1255B49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{66D79B19-8E6A-48B1-8686-CB21813E7139}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{28464936-211C-478D-AD57-CE77E80889CD}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{66B4B63A-57B8-4FAA-B7CA-192A6BC56C35}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="162">
   <si>
     <t>Población según si le han realizado alguna vez una mamografía por prescripción de algún especialista en 2007 (Tasa respuesta: 50,33%)</t>
   </si>
@@ -71,7 +71,7 @@
     <t>&lt;2.000hab</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>—%</t>
@@ -80,10 +80,10 @@
     <t>49,09%</t>
   </si>
   <si>
-    <t>40,45%</t>
-  </si>
-  <si>
-    <t>57,64%</t>
+    <t>40,43%</t>
+  </si>
+  <si>
+    <t>58,15%</t>
   </si>
   <si>
     <t>No</t>
@@ -92,10 +92,10 @@
     <t>50,91%</t>
   </si>
   <si>
-    <t>42,36%</t>
-  </si>
-  <si>
-    <t>59,55%</t>
+    <t>41,85%</t>
+  </si>
+  <si>
+    <t>59,57%</t>
   </si>
   <si>
     <t>100%</t>
@@ -107,19 +107,19 @@
     <t>33,02%</t>
   </si>
   <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>37,09%</t>
+    <t>29,5%</t>
+  </si>
+  <si>
+    <t>36,91%</t>
   </si>
   <si>
     <t>66,98%</t>
   </si>
   <si>
-    <t>62,91%</t>
-  </si>
-  <si>
-    <t>70,83%</t>
+    <t>63,09%</t>
+  </si>
+  <si>
+    <t>70,5%</t>
   </si>
   <si>
     <t>10-50.000 hab</t>
@@ -128,19 +128,19 @@
     <t>35,38%</t>
   </si>
   <si>
-    <t>32,37%</t>
-  </si>
-  <si>
-    <t>38,58%</t>
+    <t>32,26%</t>
+  </si>
+  <si>
+    <t>38,5%</t>
   </si>
   <si>
     <t>64,62%</t>
   </si>
   <si>
-    <t>61,42%</t>
-  </si>
-  <si>
-    <t>67,63%</t>
+    <t>61,5%</t>
+  </si>
+  <si>
+    <t>67,74%</t>
   </si>
   <si>
     <t>&gt;50.000hab</t>
@@ -149,19 +149,19 @@
     <t>38,93%</t>
   </si>
   <si>
-    <t>35,33%</t>
-  </si>
-  <si>
-    <t>43,22%</t>
+    <t>35,42%</t>
+  </si>
+  <si>
+    <t>43,14%</t>
   </si>
   <si>
     <t>61,07%</t>
   </si>
   <si>
-    <t>56,78%</t>
-  </si>
-  <si>
-    <t>64,67%</t>
+    <t>56,86%</t>
+  </si>
+  <si>
+    <t>64,58%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -170,37 +170,37 @@
     <t>41,08%</t>
   </si>
   <si>
-    <t>37,96%</t>
-  </si>
-  <si>
-    <t>44,14%</t>
+    <t>37,75%</t>
+  </si>
+  <si>
+    <t>44,38%</t>
   </si>
   <si>
     <t>58,92%</t>
   </si>
   <si>
-    <t>55,86%</t>
-  </si>
-  <si>
-    <t>62,04%</t>
+    <t>55,62%</t>
+  </si>
+  <si>
+    <t>62,25%</t>
   </si>
   <si>
     <t>37,91%</t>
   </si>
   <si>
-    <t>36,24%</t>
-  </si>
-  <si>
-    <t>39,42%</t>
+    <t>36,16%</t>
+  </si>
+  <si>
+    <t>39,59%</t>
   </si>
   <si>
     <t>62,09%</t>
   </si>
   <si>
-    <t>60,58%</t>
-  </si>
-  <si>
-    <t>63,76%</t>
+    <t>60,41%</t>
+  </si>
+  <si>
+    <t>63,84%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -212,313 +212,319 @@
     <t>58,95%</t>
   </si>
   <si>
-    <t>48,58%</t>
-  </si>
-  <si>
-    <t>68,26%</t>
+    <t>49,52%</t>
+  </si>
+  <si>
+    <t>67,9%</t>
   </si>
   <si>
     <t>41,05%</t>
   </si>
   <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>51,42%</t>
+    <t>32,1%</t>
+  </si>
+  <si>
+    <t>50,48%</t>
   </si>
   <si>
     <t>45,13%</t>
   </si>
   <si>
-    <t>41,01%</t>
-  </si>
-  <si>
-    <t>49,47%</t>
+    <t>41,21%</t>
+  </si>
+  <si>
+    <t>49,34%</t>
   </si>
   <si>
     <t>54,87%</t>
   </si>
   <si>
-    <t>50,53%</t>
-  </si>
-  <si>
-    <t>58,99%</t>
+    <t>50,66%</t>
+  </si>
+  <si>
+    <t>58,79%</t>
   </si>
   <si>
     <t>45,27%</t>
   </si>
   <si>
-    <t>41,99%</t>
-  </si>
-  <si>
-    <t>48,42%</t>
+    <t>41,91%</t>
+  </si>
+  <si>
+    <t>48,27%</t>
   </si>
   <si>
     <t>54,73%</t>
   </si>
   <si>
-    <t>51,58%</t>
-  </si>
-  <si>
-    <t>58,01%</t>
+    <t>51,73%</t>
+  </si>
+  <si>
+    <t>58,09%</t>
   </si>
   <si>
     <t>47,89%</t>
   </si>
   <si>
-    <t>43,82%</t>
+    <t>44,11%</t>
+  </si>
+  <si>
+    <t>51,29%</t>
+  </si>
+  <si>
+    <t>52,11%</t>
+  </si>
+  <si>
+    <t>48,71%</t>
+  </si>
+  <si>
+    <t>55,89%</t>
+  </si>
+  <si>
+    <t>48,29%</t>
+  </si>
+  <si>
+    <t>45,41%</t>
+  </si>
+  <si>
+    <t>51,39%</t>
+  </si>
+  <si>
+    <t>51,71%</t>
+  </si>
+  <si>
+    <t>48,61%</t>
+  </si>
+  <si>
+    <t>54,59%</t>
+  </si>
+  <si>
+    <t>47,14%</t>
+  </si>
+  <si>
+    <t>45,56%</t>
+  </si>
+  <si>
+    <t>48,86%</t>
+  </si>
+  <si>
+    <t>52,86%</t>
+  </si>
+  <si>
+    <t>51,14%</t>
+  </si>
+  <si>
+    <t>54,44%</t>
+  </si>
+  <si>
+    <t>Población según si le han realizado alguna vez una mamografía por prescripción de algún especialista en 2016 (Tasa respuesta: 50,46%)</t>
+  </si>
+  <si>
+    <t>50,62%</t>
+  </si>
+  <si>
+    <t>41,5%</t>
+  </si>
+  <si>
+    <t>58,69%</t>
+  </si>
+  <si>
+    <t>49,38%</t>
+  </si>
+  <si>
+    <t>41,31%</t>
+  </si>
+  <si>
+    <t>58,5%</t>
+  </si>
+  <si>
+    <t>49,88%</t>
+  </si>
+  <si>
+    <t>45,95%</t>
+  </si>
+  <si>
+    <t>54,18%</t>
+  </si>
+  <si>
+    <t>50,12%</t>
+  </si>
+  <si>
+    <t>45,82%</t>
+  </si>
+  <si>
+    <t>54,05%</t>
+  </si>
+  <si>
+    <t>52,55%</t>
+  </si>
+  <si>
+    <t>49,53%</t>
+  </si>
+  <si>
+    <t>55,67%</t>
+  </si>
+  <si>
+    <t>47,45%</t>
+  </si>
+  <si>
+    <t>44,33%</t>
+  </si>
+  <si>
+    <t>50,47%</t>
+  </si>
+  <si>
+    <t>43,76%</t>
+  </si>
+  <si>
+    <t>40,29%</t>
+  </si>
+  <si>
+    <t>47,66%</t>
+  </si>
+  <si>
+    <t>56,24%</t>
+  </si>
+  <si>
+    <t>52,34%</t>
+  </si>
+  <si>
+    <t>59,71%</t>
+  </si>
+  <si>
+    <t>51,91%</t>
+  </si>
+  <si>
+    <t>48,85%</t>
+  </si>
+  <si>
+    <t>55,39%</t>
+  </si>
+  <si>
+    <t>48,09%</t>
+  </si>
+  <si>
+    <t>44,61%</t>
+  </si>
+  <si>
+    <t>51,15%</t>
+  </si>
+  <si>
+    <t>49,93%</t>
+  </si>
+  <si>
+    <t>48,24%</t>
+  </si>
+  <si>
+    <t>50,07%</t>
+  </si>
+  <si>
+    <t>51,76%</t>
+  </si>
+  <si>
+    <t>Población según si le han realizado alguna vez una mamografía por prescripción de algún especialista en 2023 (Tasa respuesta: 46,09%)</t>
+  </si>
+  <si>
+    <t>55,65%</t>
+  </si>
+  <si>
+    <t>46,1%</t>
+  </si>
+  <si>
+    <t>64,16%</t>
+  </si>
+  <si>
+    <t>44,35%</t>
+  </si>
+  <si>
+    <t>35,84%</t>
+  </si>
+  <si>
+    <t>53,9%</t>
+  </si>
+  <si>
+    <t>52,0%</t>
+  </si>
+  <si>
+    <t>48,28%</t>
+  </si>
+  <si>
+    <t>56,15%</t>
+  </si>
+  <si>
+    <t>48,0%</t>
+  </si>
+  <si>
+    <t>43,85%</t>
+  </si>
+  <si>
+    <t>51,72%</t>
+  </si>
+  <si>
+    <t>48,51%</t>
+  </si>
+  <si>
+    <t>45,25%</t>
+  </si>
+  <si>
+    <t>51,61%</t>
   </si>
   <si>
     <t>51,49%</t>
   </si>
   <si>
-    <t>52,11%</t>
-  </si>
-  <si>
-    <t>48,51%</t>
-  </si>
-  <si>
-    <t>56,18%</t>
-  </si>
-  <si>
-    <t>48,29%</t>
-  </si>
-  <si>
-    <t>45,35%</t>
-  </si>
-  <si>
-    <t>51,59%</t>
-  </si>
-  <si>
-    <t>51,71%</t>
-  </si>
-  <si>
-    <t>48,41%</t>
-  </si>
-  <si>
-    <t>54,65%</t>
-  </si>
-  <si>
-    <t>47,14%</t>
-  </si>
-  <si>
-    <t>45,36%</t>
-  </si>
-  <si>
-    <t>48,81%</t>
-  </si>
-  <si>
-    <t>52,86%</t>
-  </si>
-  <si>
-    <t>51,19%</t>
-  </si>
-  <si>
-    <t>54,64%</t>
-  </si>
-  <si>
-    <t>Población según si le han realizado alguna vez una mamografía por prescripción de algún especialista en 2016 (Tasa respuesta: 50,46%)</t>
-  </si>
-  <si>
-    <t>50,62%</t>
-  </si>
-  <si>
-    <t>60,4%</t>
-  </si>
-  <si>
-    <t>49,38%</t>
-  </si>
-  <si>
-    <t>39,6%</t>
-  </si>
-  <si>
-    <t>49,88%</t>
-  </si>
-  <si>
-    <t>45,83%</t>
-  </si>
-  <si>
-    <t>54,16%</t>
-  </si>
-  <si>
-    <t>50,12%</t>
-  </si>
-  <si>
-    <t>45,84%</t>
-  </si>
-  <si>
-    <t>54,17%</t>
-  </si>
-  <si>
-    <t>52,55%</t>
-  </si>
-  <si>
-    <t>49,72%</t>
-  </si>
-  <si>
-    <t>55,95%</t>
-  </si>
-  <si>
-    <t>47,45%</t>
-  </si>
-  <si>
-    <t>44,05%</t>
-  </si>
-  <si>
-    <t>50,28%</t>
-  </si>
-  <si>
-    <t>43,76%</t>
-  </si>
-  <si>
-    <t>40,41%</t>
-  </si>
-  <si>
-    <t>47,51%</t>
-  </si>
-  <si>
-    <t>56,24%</t>
-  </si>
-  <si>
-    <t>52,49%</t>
-  </si>
-  <si>
-    <t>59,59%</t>
-  </si>
-  <si>
-    <t>51,91%</t>
-  </si>
-  <si>
-    <t>48,7%</t>
-  </si>
-  <si>
-    <t>55,13%</t>
-  </si>
-  <si>
-    <t>48,09%</t>
-  </si>
-  <si>
-    <t>44,87%</t>
-  </si>
-  <si>
-    <t>51,3%</t>
-  </si>
-  <si>
-    <t>49,93%</t>
-  </si>
-  <si>
-    <t>48,11%</t>
-  </si>
-  <si>
-    <t>51,61%</t>
-  </si>
-  <si>
-    <t>50,07%</t>
-  </si>
-  <si>
     <t>48,39%</t>
   </si>
   <si>
-    <t>51,89%</t>
-  </si>
-  <si>
-    <t>Población según si le han realizado alguna vez una mamografía por prescripción de algún especialista en 2023 (Tasa respuesta: 46,09%)</t>
-  </si>
-  <si>
-    <t>55,65%</t>
-  </si>
-  <si>
-    <t>46,08%</t>
-  </si>
-  <si>
-    <t>64,18%</t>
-  </si>
-  <si>
-    <t>44,35%</t>
-  </si>
-  <si>
-    <t>35,82%</t>
-  </si>
-  <si>
-    <t>53,92%</t>
-  </si>
-  <si>
-    <t>52,0%</t>
-  </si>
-  <si>
-    <t>48,3%</t>
-  </si>
-  <si>
-    <t>48,0%</t>
-  </si>
-  <si>
-    <t>51,7%</t>
-  </si>
-  <si>
-    <t>45,44%</t>
-  </si>
-  <si>
-    <t>51,75%</t>
-  </si>
-  <si>
-    <t>48,25%</t>
-  </si>
-  <si>
-    <t>54,56%</t>
+    <t>54,75%</t>
   </si>
   <si>
     <t>62,57%</t>
   </si>
   <si>
-    <t>53,68%</t>
-  </si>
-  <si>
-    <t>78,1%</t>
+    <t>53,54%</t>
+  </si>
+  <si>
+    <t>79,24%</t>
   </si>
   <si>
     <t>37,43%</t>
   </si>
   <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>46,32%</t>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>46,46%</t>
   </si>
   <si>
     <t>54,86%</t>
   </si>
   <si>
-    <t>50,68%</t>
-  </si>
-  <si>
-    <t>58,75%</t>
+    <t>50,95%</t>
+  </si>
+  <si>
+    <t>58,53%</t>
   </si>
   <si>
     <t>45,14%</t>
   </si>
   <si>
-    <t>41,25%</t>
-  </si>
-  <si>
-    <t>49,32%</t>
+    <t>41,47%</t>
+  </si>
+  <si>
+    <t>49,05%</t>
   </si>
   <si>
     <t>54,4%</t>
   </si>
   <si>
-    <t>51,81%</t>
-  </si>
-  <si>
-    <t>59,81%</t>
+    <t>60,6%</t>
   </si>
   <si>
     <t>45,6%</t>
   </si>
   <si>
-    <t>40,19%</t>
-  </si>
-  <si>
-    <t>48,19%</t>
+    <t>39,4%</t>
   </si>
 </sst>
 </file>
@@ -930,7 +936,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F248AF97-788D-4C1F-9473-F6617B85052A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F8EB89C-E97D-474B-83FA-D93A69F57E93}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1957,7 +1963,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B56DF487-0C56-4DA7-8FF9-3A699ECF5F5D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60EA42E2-A1A3-4AAE-B7DB-12D1083EA03A}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2438,7 +2444,7 @@
         <v>514</v>
       </c>
       <c r="I11" s="7">
-        <v>560968</v>
+        <v>560969</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>71</v>
@@ -2453,7 +2459,7 @@
         <v>514</v>
       </c>
       <c r="N11" s="7">
-        <v>560968</v>
+        <v>560969</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>71</v>
@@ -2487,7 +2493,7 @@
         <v>933</v>
       </c>
       <c r="I12" s="7">
-        <v>1024897</v>
+        <v>1024898</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -2502,7 +2508,7 @@
         <v>933</v>
       </c>
       <c r="N12" s="7">
-        <v>1024897</v>
+        <v>1024898</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -2984,7 +2990,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D413B17A-3CA8-46AB-9A95-4E2573FB58FC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72B87AF0-9E90-4536-9669-03D6A4D2EE34}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3124,10 +3130,10 @@
         <v>93</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>69</v>
+        <v>94</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M4" s="7">
         <v>56</v>
@@ -3139,10 +3145,10 @@
         <v>93</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>69</v>
+        <v>94</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3170,13 +3176,13 @@
         <v>55983</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="M5" s="7">
         <v>59</v>
@@ -3185,13 +3191,13 @@
         <v>55983</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>73</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3270,13 +3276,13 @@
         <v>276838</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M7" s="7">
         <v>263</v>
@@ -3285,13 +3291,13 @@
         <v>276838</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3319,13 +3325,13 @@
         <v>278130</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M8" s="7">
         <v>284</v>
@@ -3334,13 +3340,13 @@
         <v>278130</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3419,13 +3425,13 @@
         <v>543552</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M10" s="7">
         <v>493</v>
@@ -3434,13 +3440,13 @@
         <v>543552</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3468,13 +3474,13 @@
         <v>490717</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M11" s="7">
         <v>476</v>
@@ -3483,13 +3489,13 @@
         <v>490717</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3568,13 +3574,13 @@
         <v>342091</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M13" s="7">
         <v>309</v>
@@ -3583,13 +3589,13 @@
         <v>342091</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3617,13 +3623,13 @@
         <v>439617</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="M14" s="7">
         <v>424</v>
@@ -3632,13 +3638,13 @@
         <v>439617</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3717,13 +3723,13 @@
         <v>537442</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M16" s="7">
         <v>474</v>
@@ -3732,13 +3738,13 @@
         <v>537442</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3766,13 +3772,13 @@
         <v>497943</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M17" s="7">
         <v>477</v>
@@ -3781,13 +3787,13 @@
         <v>497943</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3866,13 +3872,13 @@
         <v>1757300</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>123</v>
+        <v>83</v>
       </c>
       <c r="M19" s="7">
         <v>1595</v>
@@ -3881,13 +3887,13 @@
         <v>1757300</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>123</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3915,10 +3921,10 @@
         <v>1762390</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>125</v>
+        <v>80</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>126</v>
@@ -3930,10 +3936,10 @@
         <v>1762390</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>125</v>
+        <v>80</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>126</v>
@@ -4011,7 +4017,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15966629-5322-4476-BA78-0B4A5A55E879}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6570280-3AC9-4CEA-8B5B-A36E7E2E2430}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4303,7 +4309,7 @@
         <v>135</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="M7" s="7">
         <v>478</v>
@@ -4318,7 +4324,7 @@
         <v>135</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>79</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4346,13 +4352,13 @@
         <v>220136</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>75</v>
+        <v>138</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M8" s="7">
         <v>297</v>
@@ -4361,13 +4367,13 @@
         <v>220136</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>75</v>
+        <v>138</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4446,13 +4452,13 @@
         <v>395437</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>78</v>
+        <v>140</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="M10" s="7">
         <v>677</v>
@@ -4461,13 +4467,13 @@
         <v>395437</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>78</v>
+        <v>140</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4495,13 +4501,13 @@
         <v>419670</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>76</v>
+        <v>143</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="M11" s="7">
         <v>498</v>
@@ -4510,13 +4516,13 @@
         <v>419670</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>76</v>
+        <v>143</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4595,13 +4601,13 @@
         <v>410350</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="M13" s="7">
         <v>438</v>
@@ -4610,13 +4616,13 @@
         <v>410350</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4644,13 +4650,13 @@
         <v>245436</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="M14" s="7">
         <v>295</v>
@@ -4659,13 +4665,13 @@
         <v>245436</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4744,13 +4750,13 @@
         <v>488687</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="M16" s="7">
         <v>765</v>
@@ -4759,13 +4765,13 @@
         <v>488687</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4793,13 +4799,13 @@
         <v>402066</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="M17" s="7">
         <v>412</v>
@@ -4808,13 +4814,13 @@
         <v>402066</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4893,13 +4899,13 @@
         <v>1582967</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="M19" s="7">
         <v>2467</v>
@@ -4908,13 +4914,13 @@
         <v>1582967</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4942,13 +4948,13 @@
         <v>1327161</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="M20" s="7">
         <v>1563</v>
@@ -4957,13 +4963,13 @@
         <v>1327161</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>159</v>
+        <v>135</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P43-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P43-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{66D79B19-8E6A-48B1-8686-CB21813E7139}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A6196EB8-C79A-4A74-A087-83994733B249}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{66B4B63A-57B8-4FAA-B7CA-192A6BC56C35}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{F62703F8-C703-4707-8233-9B3F6E187788}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="139">
   <si>
     <t>Población según si le han realizado alguna vez una mamografía por prescripción de algún especialista en 2007 (Tasa respuesta: 50,33%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -77,51 +77,30 @@
     <t>—%</t>
   </si>
   <si>
-    <t>49,09%</t>
-  </si>
-  <si>
-    <t>40,43%</t>
-  </si>
-  <si>
-    <t>58,15%</t>
+    <t>35,67%</t>
+  </si>
+  <si>
+    <t>32,3%</t>
+  </si>
+  <si>
+    <t>39,33%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>50,91%</t>
-  </si>
-  <si>
-    <t>41,85%</t>
-  </si>
-  <si>
-    <t>59,57%</t>
+    <t>64,33%</t>
+  </si>
+  <si>
+    <t>60,67%</t>
+  </si>
+  <si>
+    <t>67,7%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>33,02%</t>
-  </si>
-  <si>
-    <t>29,5%</t>
-  </si>
-  <si>
-    <t>36,91%</t>
-  </si>
-  <si>
-    <t>66,98%</t>
-  </si>
-  <si>
-    <t>63,09%</t>
-  </si>
-  <si>
-    <t>70,5%</t>
-  </si>
-  <si>
     <t>10-50.000 hab</t>
   </si>
   <si>
@@ -143,7 +122,7 @@
     <t>67,74%</t>
   </si>
   <si>
-    <t>&gt;50.000hab</t>
+    <t>&gt;50.000 hab</t>
   </si>
   <si>
     <t>38,93%</t>
@@ -209,40 +188,22 @@
     <t>Población según si le han realizado alguna vez una mamografía por prescripción de algún especialista en 2012 (Tasa respuesta: 50,36%)</t>
   </si>
   <si>
-    <t>58,95%</t>
-  </si>
-  <si>
-    <t>49,52%</t>
-  </si>
-  <si>
-    <t>67,9%</t>
-  </si>
-  <si>
-    <t>41,05%</t>
-  </si>
-  <si>
-    <t>32,1%</t>
-  </si>
-  <si>
-    <t>50,48%</t>
-  </si>
-  <si>
-    <t>45,13%</t>
-  </si>
-  <si>
-    <t>41,21%</t>
-  </si>
-  <si>
-    <t>49,34%</t>
-  </si>
-  <si>
-    <t>54,87%</t>
-  </si>
-  <si>
-    <t>50,66%</t>
-  </si>
-  <si>
-    <t>58,79%</t>
+    <t>47,36%</t>
+  </si>
+  <si>
+    <t>43,31%</t>
+  </si>
+  <si>
+    <t>51,09%</t>
+  </si>
+  <si>
+    <t>52,64%</t>
+  </si>
+  <si>
+    <t>48,91%</t>
+  </si>
+  <si>
+    <t>56,69%</t>
   </si>
   <si>
     <t>45,27%</t>
@@ -320,40 +281,22 @@
     <t>Población según si le han realizado alguna vez una mamografía por prescripción de algún especialista en 2016 (Tasa respuesta: 50,46%)</t>
   </si>
   <si>
-    <t>50,62%</t>
-  </si>
-  <si>
-    <t>41,5%</t>
-  </si>
-  <si>
-    <t>58,69%</t>
-  </si>
-  <si>
-    <t>49,38%</t>
-  </si>
-  <si>
-    <t>41,31%</t>
-  </si>
-  <si>
-    <t>58,5%</t>
-  </si>
-  <si>
-    <t>49,88%</t>
-  </si>
-  <si>
-    <t>45,95%</t>
-  </si>
-  <si>
-    <t>54,18%</t>
-  </si>
-  <si>
-    <t>50,12%</t>
-  </si>
-  <si>
-    <t>45,82%</t>
-  </si>
-  <si>
-    <t>54,05%</t>
+    <t>50,01%</t>
+  </si>
+  <si>
+    <t>46,39%</t>
+  </si>
+  <si>
+    <t>54,48%</t>
+  </si>
+  <si>
+    <t>49,99%</t>
+  </si>
+  <si>
+    <t>45,52%</t>
+  </si>
+  <si>
+    <t>53,61%</t>
   </si>
   <si>
     <t>52,55%</t>
@@ -425,106 +368,94 @@
     <t>Población según si le han realizado alguna vez una mamografía por prescripción de algún especialista en 2023 (Tasa respuesta: 46,09%)</t>
   </si>
   <si>
-    <t>55,65%</t>
-  </si>
-  <si>
-    <t>46,1%</t>
-  </si>
-  <si>
-    <t>64,16%</t>
-  </si>
-  <si>
-    <t>44,35%</t>
-  </si>
-  <si>
-    <t>35,84%</t>
-  </si>
-  <si>
-    <t>53,9%</t>
-  </si>
-  <si>
-    <t>52,0%</t>
-  </si>
-  <si>
-    <t>48,28%</t>
-  </si>
-  <si>
-    <t>56,15%</t>
-  </si>
-  <si>
-    <t>48,0%</t>
-  </si>
-  <si>
-    <t>43,85%</t>
-  </si>
-  <si>
-    <t>51,72%</t>
-  </si>
-  <si>
-    <t>48,51%</t>
-  </si>
-  <si>
-    <t>45,25%</t>
-  </si>
-  <si>
-    <t>51,61%</t>
-  </si>
-  <si>
-    <t>51,49%</t>
-  </si>
-  <si>
-    <t>48,39%</t>
-  </si>
-  <si>
-    <t>54,75%</t>
-  </si>
-  <si>
-    <t>62,57%</t>
-  </si>
-  <si>
-    <t>53,54%</t>
-  </si>
-  <si>
-    <t>79,24%</t>
-  </si>
-  <si>
-    <t>37,43%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>46,46%</t>
-  </si>
-  <si>
-    <t>54,86%</t>
-  </si>
-  <si>
-    <t>50,95%</t>
-  </si>
-  <si>
-    <t>58,53%</t>
-  </si>
-  <si>
-    <t>45,14%</t>
-  </si>
-  <si>
-    <t>41,47%</t>
-  </si>
-  <si>
-    <t>49,05%</t>
-  </si>
-  <si>
-    <t>54,4%</t>
-  </si>
-  <si>
-    <t>60,6%</t>
-  </si>
-  <si>
-    <t>45,6%</t>
-  </si>
-  <si>
-    <t>39,4%</t>
+    <t>53,13%</t>
+  </si>
+  <si>
+    <t>49,42%</t>
+  </si>
+  <si>
+    <t>56,73%</t>
+  </si>
+  <si>
+    <t>46,87%</t>
+  </si>
+  <si>
+    <t>43,27%</t>
+  </si>
+  <si>
+    <t>50,58%</t>
+  </si>
+  <si>
+    <t>49,33%</t>
+  </si>
+  <si>
+    <t>46,11%</t>
+  </si>
+  <si>
+    <t>52,38%</t>
+  </si>
+  <si>
+    <t>50,67%</t>
+  </si>
+  <si>
+    <t>47,62%</t>
+  </si>
+  <si>
+    <t>53,89%</t>
+  </si>
+  <si>
+    <t>69,25%</t>
+  </si>
+  <si>
+    <t>54,88%</t>
+  </si>
+  <si>
+    <t>87,18%</t>
+  </si>
+  <si>
+    <t>30,75%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>45,12%</t>
+  </si>
+  <si>
+    <t>51,88%</t>
+  </si>
+  <si>
+    <t>38,8%</t>
+  </si>
+  <si>
+    <t>57,57%</t>
+  </si>
+  <si>
+    <t>48,12%</t>
+  </si>
+  <si>
+    <t>42,43%</t>
+  </si>
+  <si>
+    <t>61,2%</t>
+  </si>
+  <si>
+    <t>55,92%</t>
+  </si>
+  <si>
+    <t>51,1%</t>
+  </si>
+  <si>
+    <t>65,8%</t>
+  </si>
+  <si>
+    <t>44,08%</t>
+  </si>
+  <si>
+    <t>34,2%</t>
+  </si>
+  <si>
+    <t>48,9%</t>
   </si>
 </sst>
 </file>
@@ -936,8 +867,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F8EB89C-E97D-474B-83FA-D93A69F57E93}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DCA921D-FD89-4FB1-89E2-065148DC8222}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1067,10 +998,10 @@
         <v>11</v>
       </c>
       <c r="H4" s="7">
-        <v>64</v>
+        <v>253</v>
       </c>
       <c r="I4" s="7">
-        <v>55351</v>
+        <v>243732</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>12</v>
@@ -1082,10 +1013,10 @@
         <v>14</v>
       </c>
       <c r="M4" s="7">
-        <v>64</v>
+        <v>253</v>
       </c>
       <c r="N4" s="7">
-        <v>55351</v>
+        <v>243732</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>12</v>
@@ -1116,10 +1047,10 @@
         <v>11</v>
       </c>
       <c r="H5" s="7">
-        <v>64</v>
+        <v>438</v>
       </c>
       <c r="I5" s="7">
-        <v>57404</v>
+        <v>439536</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>16</v>
@@ -1131,10 +1062,10 @@
         <v>18</v>
       </c>
       <c r="M5" s="7">
-        <v>64</v>
+        <v>438</v>
       </c>
       <c r="N5" s="7">
-        <v>57404</v>
+        <v>439536</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>16</v>
@@ -1165,10 +1096,10 @@
         <v>11</v>
       </c>
       <c r="H6" s="7">
-        <v>128</v>
+        <v>691</v>
       </c>
       <c r="I6" s="7">
-        <v>112755</v>
+        <v>683268</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -1180,10 +1111,10 @@
         <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>128</v>
+        <v>691</v>
       </c>
       <c r="N6" s="7">
-        <v>112755</v>
+        <v>683268</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>19</v>
@@ -1216,10 +1147,10 @@
         <v>11</v>
       </c>
       <c r="H7" s="7">
-        <v>189</v>
+        <v>322</v>
       </c>
       <c r="I7" s="7">
-        <v>188382</v>
+        <v>341470</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>21</v>
@@ -1231,10 +1162,10 @@
         <v>23</v>
       </c>
       <c r="M7" s="7">
-        <v>189</v>
+        <v>322</v>
       </c>
       <c r="N7" s="7">
-        <v>188382</v>
+        <v>341470</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>21</v>
@@ -1265,10 +1196,10 @@
         <v>11</v>
       </c>
       <c r="H8" s="7">
-        <v>374</v>
+        <v>583</v>
       </c>
       <c r="I8" s="7">
-        <v>382131</v>
+        <v>623739</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>24</v>
@@ -1280,10 +1211,10 @@
         <v>26</v>
       </c>
       <c r="M8" s="7">
-        <v>374</v>
+        <v>583</v>
       </c>
       <c r="N8" s="7">
-        <v>382131</v>
+        <v>623739</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>24</v>
@@ -1314,10 +1245,10 @@
         <v>11</v>
       </c>
       <c r="H9" s="7">
-        <v>563</v>
+        <v>905</v>
       </c>
       <c r="I9" s="7">
-        <v>570513</v>
+        <v>965209</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -1329,10 +1260,10 @@
         <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>563</v>
+        <v>905</v>
       </c>
       <c r="N9" s="7">
-        <v>570513</v>
+        <v>965209</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -1365,10 +1296,10 @@
         <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>322</v>
+        <v>267</v>
       </c>
       <c r="I10" s="7">
-        <v>341470</v>
+        <v>264087</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>28</v>
@@ -1380,10 +1311,10 @@
         <v>30</v>
       </c>
       <c r="M10" s="7">
-        <v>322</v>
+        <v>267</v>
       </c>
       <c r="N10" s="7">
-        <v>341470</v>
+        <v>264087</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>28</v>
@@ -1414,10 +1345,10 @@
         <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>583</v>
+        <v>423</v>
       </c>
       <c r="I11" s="7">
-        <v>623739</v>
+        <v>414325</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>31</v>
@@ -1429,10 +1360,10 @@
         <v>33</v>
       </c>
       <c r="M11" s="7">
-        <v>583</v>
+        <v>423</v>
       </c>
       <c r="N11" s="7">
-        <v>623739</v>
+        <v>414325</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>31</v>
@@ -1463,10 +1394,10 @@
         <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>905</v>
+        <v>690</v>
       </c>
       <c r="I12" s="7">
-        <v>965209</v>
+        <v>678412</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -1478,10 +1409,10 @@
         <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>905</v>
+        <v>690</v>
       </c>
       <c r="N12" s="7">
-        <v>965209</v>
+        <v>678412</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -1514,10 +1445,10 @@
         <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>267</v>
+        <v>410</v>
       </c>
       <c r="I13" s="7">
-        <v>264087</v>
+        <v>424152</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>35</v>
@@ -1529,10 +1460,10 @@
         <v>37</v>
       </c>
       <c r="M13" s="7">
-        <v>267</v>
+        <v>410</v>
       </c>
       <c r="N13" s="7">
-        <v>264087</v>
+        <v>424152</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>35</v>
@@ -1563,10 +1494,10 @@
         <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>423</v>
+        <v>581</v>
       </c>
       <c r="I14" s="7">
-        <v>414325</v>
+        <v>608453</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>38</v>
@@ -1578,10 +1509,10 @@
         <v>40</v>
       </c>
       <c r="M14" s="7">
-        <v>423</v>
+        <v>581</v>
       </c>
       <c r="N14" s="7">
-        <v>414325</v>
+        <v>608453</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>38</v>
@@ -1612,10 +1543,10 @@
         <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>690</v>
+        <v>991</v>
       </c>
       <c r="I15" s="7">
-        <v>678412</v>
+        <v>1032605</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -1627,10 +1558,10 @@
         <v>19</v>
       </c>
       <c r="M15" s="7">
-        <v>690</v>
+        <v>991</v>
       </c>
       <c r="N15" s="7">
-        <v>678412</v>
+        <v>1032605</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -1644,7 +1575,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1663,34 +1594,34 @@
         <v>11</v>
       </c>
       <c r="H16" s="7">
-        <v>410</v>
+        <v>1252</v>
       </c>
       <c r="I16" s="7">
-        <v>424152</v>
+        <v>1273441</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="L16" s="7" t="s">
-        <v>44</v>
-      </c>
       <c r="M16" s="7">
-        <v>410</v>
+        <v>1252</v>
       </c>
       <c r="N16" s="7">
-        <v>424152</v>
+        <v>1273441</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1712,34 +1643,34 @@
         <v>11</v>
       </c>
       <c r="H17" s="7">
-        <v>581</v>
+        <v>2025</v>
       </c>
       <c r="I17" s="7">
-        <v>608453</v>
+        <v>2086053</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="L17" s="7" t="s">
-        <v>47</v>
-      </c>
       <c r="M17" s="7">
-        <v>581</v>
+        <v>2025</v>
       </c>
       <c r="N17" s="7">
-        <v>608453</v>
+        <v>2086053</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1761,10 +1692,10 @@
         <v>11</v>
       </c>
       <c r="H18" s="7">
-        <v>991</v>
+        <v>3277</v>
       </c>
       <c r="I18" s="7">
-        <v>1032605</v>
+        <v>3359494</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -1776,10 +1707,10 @@
         <v>19</v>
       </c>
       <c r="M18" s="7">
-        <v>991</v>
+        <v>3277</v>
       </c>
       <c r="N18" s="7">
-        <v>1032605</v>
+        <v>3359494</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>19</v>
@@ -1792,165 +1723,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>0</v>
-      </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H19" s="7">
-        <v>1252</v>
-      </c>
-      <c r="I19" s="7">
-        <v>1273441</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="M19" s="7">
-        <v>1252</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1273441</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="7">
-        <v>0</v>
-      </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H20" s="7">
-        <v>2025</v>
-      </c>
-      <c r="I20" s="7">
-        <v>2086053</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="M20" s="7">
-        <v>2025</v>
-      </c>
-      <c r="N20" s="7">
-        <v>2086053</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>0</v>
-      </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3277</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3359494</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="7">
-        <v>3277</v>
-      </c>
-      <c r="N21" s="7">
-        <v>3359494</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>54</v>
+      <c r="A19" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -1963,8 +1744,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60EA42E2-A1A3-4AAE-B7DB-12D1083EA03A}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBA3B97E-2020-48C2-BA72-5678DB93F4B2}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1980,7 +1761,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2094,34 +1875,34 @@
         <v>11</v>
       </c>
       <c r="H4" s="7">
-        <v>57</v>
+        <v>303</v>
       </c>
       <c r="I4" s="7">
-        <v>65967</v>
+        <v>328239</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="M4" s="7">
-        <v>57</v>
+        <v>303</v>
       </c>
       <c r="N4" s="7">
-        <v>65967</v>
+        <v>328239</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2143,34 +1924,34 @@
         <v>11</v>
       </c>
       <c r="H5" s="7">
-        <v>42</v>
+        <v>343</v>
       </c>
       <c r="I5" s="7">
-        <v>45938</v>
+        <v>364848</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="M5" s="7">
-        <v>42</v>
+        <v>343</v>
       </c>
       <c r="N5" s="7">
-        <v>45938</v>
+        <v>364848</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2192,10 +1973,10 @@
         <v>11</v>
       </c>
       <c r="H6" s="7">
-        <v>99</v>
+        <v>646</v>
       </c>
       <c r="I6" s="7">
-        <v>111905</v>
+        <v>693087</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -2207,10 +1988,10 @@
         <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>99</v>
+        <v>646</v>
       </c>
       <c r="N6" s="7">
-        <v>111905</v>
+        <v>693087</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>19</v>
@@ -2243,34 +2024,34 @@
         <v>11</v>
       </c>
       <c r="H7" s="7">
-        <v>246</v>
+        <v>419</v>
       </c>
       <c r="I7" s="7">
-        <v>262272</v>
+        <v>463929</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="M7" s="7">
-        <v>246</v>
+        <v>419</v>
       </c>
       <c r="N7" s="7">
-        <v>262272</v>
+        <v>463929</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2292,34 +2073,34 @@
         <v>11</v>
       </c>
       <c r="H8" s="7">
-        <v>301</v>
+        <v>514</v>
       </c>
       <c r="I8" s="7">
-        <v>318910</v>
+        <v>560968</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="M8" s="7">
-        <v>301</v>
+        <v>514</v>
       </c>
       <c r="N8" s="7">
-        <v>318910</v>
+        <v>560968</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2341,10 +2122,10 @@
         <v>11</v>
       </c>
       <c r="H9" s="7">
-        <v>547</v>
+        <v>933</v>
       </c>
       <c r="I9" s="7">
-        <v>581182</v>
+        <v>1024897</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -2356,10 +2137,10 @@
         <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>547</v>
+        <v>933</v>
       </c>
       <c r="N9" s="7">
-        <v>581182</v>
+        <v>1024897</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -2392,34 +2173,34 @@
         <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>419</v>
+        <v>328</v>
       </c>
       <c r="I10" s="7">
-        <v>463929</v>
+        <v>370652</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="M10" s="7">
-        <v>419</v>
+        <v>328</v>
       </c>
       <c r="N10" s="7">
-        <v>463929</v>
+        <v>370652</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2441,34 +2222,34 @@
         <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>514</v>
+        <v>374</v>
       </c>
       <c r="I11" s="7">
-        <v>560969</v>
+        <v>403246</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="M11" s="7">
-        <v>514</v>
+        <v>374</v>
       </c>
       <c r="N11" s="7">
-        <v>560969</v>
+        <v>403246</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2490,10 +2271,10 @@
         <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>933</v>
+        <v>702</v>
       </c>
       <c r="I12" s="7">
-        <v>1024898</v>
+        <v>773898</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -2505,10 +2286,10 @@
         <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>933</v>
+        <v>702</v>
       </c>
       <c r="N12" s="7">
-        <v>1024898</v>
+        <v>773898</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -2541,34 +2322,34 @@
         <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>328</v>
+        <v>473</v>
       </c>
       <c r="I13" s="7">
-        <v>370652</v>
+        <v>504428</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="M13" s="7">
-        <v>328</v>
+        <v>473</v>
       </c>
       <c r="N13" s="7">
-        <v>370652</v>
+        <v>504428</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2590,34 +2371,34 @@
         <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>374</v>
+        <v>523</v>
       </c>
       <c r="I14" s="7">
-        <v>403246</v>
+        <v>540248</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="M14" s="7">
-        <v>374</v>
+        <v>523</v>
       </c>
       <c r="N14" s="7">
-        <v>403246</v>
+        <v>540248</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2639,10 +2420,10 @@
         <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>702</v>
+        <v>996</v>
       </c>
       <c r="I15" s="7">
-        <v>773898</v>
+        <v>1044676</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -2654,10 +2435,10 @@
         <v>19</v>
       </c>
       <c r="M15" s="7">
-        <v>702</v>
+        <v>996</v>
       </c>
       <c r="N15" s="7">
-        <v>773898</v>
+        <v>1044676</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -2671,7 +2452,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2690,34 +2471,34 @@
         <v>11</v>
       </c>
       <c r="H16" s="7">
-        <v>473</v>
+        <v>1523</v>
       </c>
       <c r="I16" s="7">
-        <v>504428</v>
+        <v>1667249</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="M16" s="7">
-        <v>473</v>
+        <v>1523</v>
       </c>
       <c r="N16" s="7">
-        <v>504428</v>
+        <v>1667249</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2739,34 +2520,34 @@
         <v>11</v>
       </c>
       <c r="H17" s="7">
-        <v>523</v>
+        <v>1754</v>
       </c>
       <c r="I17" s="7">
-        <v>540248</v>
+        <v>1869309</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="M17" s="7">
-        <v>523</v>
+        <v>1754</v>
       </c>
       <c r="N17" s="7">
-        <v>540248</v>
+        <v>1869309</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2788,10 +2569,10 @@
         <v>11</v>
       </c>
       <c r="H18" s="7">
-        <v>996</v>
+        <v>3277</v>
       </c>
       <c r="I18" s="7">
-        <v>1044676</v>
+        <v>3536558</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -2803,10 +2584,10 @@
         <v>19</v>
       </c>
       <c r="M18" s="7">
-        <v>996</v>
+        <v>3277</v>
       </c>
       <c r="N18" s="7">
-        <v>1044676</v>
+        <v>3536558</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>19</v>
@@ -2819,165 +2600,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>0</v>
-      </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H19" s="7">
-        <v>1523</v>
-      </c>
-      <c r="I19" s="7">
-        <v>1667249</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="M19" s="7">
-        <v>1523</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1667249</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="7">
-        <v>0</v>
-      </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1754</v>
-      </c>
-      <c r="I20" s="7">
-        <v>1869309</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1754</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1869309</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>0</v>
-      </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3277</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3536558</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="7">
-        <v>3277</v>
-      </c>
-      <c r="N21" s="7">
-        <v>3536558</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>54</v>
+      <c r="A19" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2990,8 +2621,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72B87AF0-9E90-4536-9669-03D6A4D2EE34}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BEBA6CF-4C69-457C-8491-7B6E8F1D4F8B}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3007,7 +2638,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3121,34 +2752,34 @@
         <v>11</v>
       </c>
       <c r="H4" s="7">
-        <v>56</v>
+        <v>319</v>
       </c>
       <c r="I4" s="7">
-        <v>57377</v>
+        <v>334215</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="M4" s="7">
-        <v>56</v>
+        <v>319</v>
       </c>
       <c r="N4" s="7">
-        <v>57377</v>
+        <v>334215</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3170,34 +2801,34 @@
         <v>11</v>
       </c>
       <c r="H5" s="7">
-        <v>59</v>
+        <v>343</v>
       </c>
       <c r="I5" s="7">
-        <v>55983</v>
+        <v>334113</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="M5" s="7">
-        <v>59</v>
+        <v>343</v>
       </c>
       <c r="N5" s="7">
-        <v>55983</v>
+        <v>334113</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3219,10 +2850,10 @@
         <v>11</v>
       </c>
       <c r="H6" s="7">
-        <v>115</v>
+        <v>662</v>
       </c>
       <c r="I6" s="7">
-        <v>113360</v>
+        <v>668328</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -3234,10 +2865,10 @@
         <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>115</v>
+        <v>662</v>
       </c>
       <c r="N6" s="7">
-        <v>113360</v>
+        <v>668328</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>19</v>
@@ -3270,34 +2901,34 @@
         <v>11</v>
       </c>
       <c r="H7" s="7">
-        <v>263</v>
+        <v>493</v>
       </c>
       <c r="I7" s="7">
-        <v>276838</v>
+        <v>543552</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="M7" s="7">
-        <v>263</v>
+        <v>493</v>
       </c>
       <c r="N7" s="7">
-        <v>276838</v>
+        <v>543552</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3319,34 +2950,34 @@
         <v>11</v>
       </c>
       <c r="H8" s="7">
-        <v>284</v>
+        <v>476</v>
       </c>
       <c r="I8" s="7">
-        <v>278130</v>
+        <v>490717</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="M8" s="7">
-        <v>284</v>
+        <v>476</v>
       </c>
       <c r="N8" s="7">
-        <v>278130</v>
+        <v>490717</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3368,10 +2999,10 @@
         <v>11</v>
       </c>
       <c r="H9" s="7">
-        <v>547</v>
+        <v>969</v>
       </c>
       <c r="I9" s="7">
-        <v>554968</v>
+        <v>1034269</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -3383,10 +3014,10 @@
         <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>547</v>
+        <v>969</v>
       </c>
       <c r="N9" s="7">
-        <v>554968</v>
+        <v>1034269</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -3419,34 +3050,34 @@
         <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>493</v>
+        <v>309</v>
       </c>
       <c r="I10" s="7">
-        <v>543552</v>
+        <v>342091</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="M10" s="7">
-        <v>493</v>
+        <v>309</v>
       </c>
       <c r="N10" s="7">
-        <v>543552</v>
+        <v>342091</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3468,34 +3099,34 @@
         <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>476</v>
+        <v>424</v>
       </c>
       <c r="I11" s="7">
-        <v>490717</v>
+        <v>439617</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="M11" s="7">
-        <v>476</v>
+        <v>424</v>
       </c>
       <c r="N11" s="7">
-        <v>490717</v>
+        <v>439617</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3517,10 +3148,10 @@
         <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>969</v>
+        <v>733</v>
       </c>
       <c r="I12" s="7">
-        <v>1034269</v>
+        <v>781708</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -3532,10 +3163,10 @@
         <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>969</v>
+        <v>733</v>
       </c>
       <c r="N12" s="7">
-        <v>1034269</v>
+        <v>781708</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -3568,34 +3199,34 @@
         <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>309</v>
+        <v>474</v>
       </c>
       <c r="I13" s="7">
-        <v>342091</v>
+        <v>537442</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="M13" s="7">
-        <v>309</v>
+        <v>474</v>
       </c>
       <c r="N13" s="7">
-        <v>342091</v>
+        <v>537442</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3617,34 +3248,34 @@
         <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>424</v>
+        <v>477</v>
       </c>
       <c r="I14" s="7">
-        <v>439617</v>
+        <v>497943</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="M14" s="7">
-        <v>424</v>
+        <v>477</v>
       </c>
       <c r="N14" s="7">
-        <v>439617</v>
+        <v>497943</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3666,10 +3297,10 @@
         <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>733</v>
+        <v>951</v>
       </c>
       <c r="I15" s="7">
-        <v>781708</v>
+        <v>1035385</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -3681,10 +3312,10 @@
         <v>19</v>
       </c>
       <c r="M15" s="7">
-        <v>733</v>
+        <v>951</v>
       </c>
       <c r="N15" s="7">
-        <v>781708</v>
+        <v>1035385</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -3698,7 +3329,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3717,34 +3348,34 @@
         <v>11</v>
       </c>
       <c r="H16" s="7">
-        <v>474</v>
+        <v>1595</v>
       </c>
       <c r="I16" s="7">
-        <v>537442</v>
+        <v>1757300</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>119</v>
+        <v>70</v>
       </c>
       <c r="M16" s="7">
-        <v>474</v>
+        <v>1595</v>
       </c>
       <c r="N16" s="7">
-        <v>537442</v>
+        <v>1757300</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>119</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3766,34 +3397,34 @@
         <v>11</v>
       </c>
       <c r="H17" s="7">
-        <v>477</v>
+        <v>1720</v>
       </c>
       <c r="I17" s="7">
-        <v>497943</v>
+        <v>1762390</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>121</v>
+        <v>67</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="M17" s="7">
-        <v>477</v>
+        <v>1720</v>
       </c>
       <c r="N17" s="7">
-        <v>497943</v>
+        <v>1762390</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>121</v>
+        <v>67</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3815,10 +3446,10 @@
         <v>11</v>
       </c>
       <c r="H18" s="7">
-        <v>951</v>
+        <v>3315</v>
       </c>
       <c r="I18" s="7">
-        <v>1035385</v>
+        <v>3519690</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -3830,10 +3461,10 @@
         <v>19</v>
       </c>
       <c r="M18" s="7">
-        <v>951</v>
+        <v>3315</v>
       </c>
       <c r="N18" s="7">
-        <v>1035385</v>
+        <v>3519690</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>19</v>
@@ -3846,165 +3477,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>0</v>
-      </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H19" s="7">
-        <v>1595</v>
-      </c>
-      <c r="I19" s="7">
-        <v>1757300</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="M19" s="7">
-        <v>1595</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1757300</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="7">
-        <v>0</v>
-      </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1720</v>
-      </c>
-      <c r="I20" s="7">
-        <v>1762390</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1720</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1762390</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>0</v>
-      </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3315</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3519690</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="7">
-        <v>3315</v>
-      </c>
-      <c r="N21" s="7">
-        <v>3519690</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>54</v>
+      <c r="A19" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4017,8 +3498,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6570280-3AC9-4CEA-8B5B-A36E7E2E2430}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F734470C-ECA9-475F-BBDB-BE6A819D280F}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4034,7 +3515,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4148,34 +3629,34 @@
         <v>11</v>
       </c>
       <c r="H4" s="7">
+        <v>587</v>
+      </c>
+      <c r="I4" s="7">
+        <v>271231</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="I4" s="7">
-        <v>50000</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>128</v>
-      </c>
       <c r="K4" s="7" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="M4" s="7">
+        <v>587</v>
+      </c>
+      <c r="N4" s="7">
+        <v>271231</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="N4" s="7">
-        <v>50000</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>128</v>
-      </c>
       <c r="P4" s="7" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4197,34 +3678,34 @@
         <v>11</v>
       </c>
       <c r="H5" s="7">
-        <v>61</v>
+        <v>358</v>
       </c>
       <c r="I5" s="7">
-        <v>39854</v>
+        <v>239235</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="M5" s="7">
-        <v>61</v>
+        <v>358</v>
       </c>
       <c r="N5" s="7">
-        <v>39854</v>
+        <v>239235</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4246,10 +3727,10 @@
         <v>11</v>
       </c>
       <c r="H6" s="7">
-        <v>170</v>
+        <v>945</v>
       </c>
       <c r="I6" s="7">
-        <v>89854</v>
+        <v>510466</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -4261,10 +3742,10 @@
         <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>170</v>
+        <v>945</v>
       </c>
       <c r="N6" s="7">
-        <v>89854</v>
+        <v>510466</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>19</v>
@@ -4297,34 +3778,34 @@
         <v>11</v>
       </c>
       <c r="H7" s="7">
-        <v>478</v>
+        <v>677</v>
       </c>
       <c r="I7" s="7">
-        <v>238493</v>
+        <v>362303</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="M7" s="7">
-        <v>478</v>
+        <v>677</v>
       </c>
       <c r="N7" s="7">
-        <v>238493</v>
+        <v>362303</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4346,34 +3827,34 @@
         <v>11</v>
       </c>
       <c r="H8" s="7">
-        <v>297</v>
+        <v>498</v>
       </c>
       <c r="I8" s="7">
-        <v>220136</v>
+        <v>372090</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="M8" s="7">
-        <v>297</v>
+        <v>498</v>
       </c>
       <c r="N8" s="7">
-        <v>220136</v>
+        <v>372090</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4395,10 +3876,10 @@
         <v>11</v>
       </c>
       <c r="H9" s="7">
-        <v>775</v>
+        <v>1175</v>
       </c>
       <c r="I9" s="7">
-        <v>458629</v>
+        <v>734393</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -4410,10 +3891,10 @@
         <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>775</v>
+        <v>1175</v>
       </c>
       <c r="N9" s="7">
-        <v>458629</v>
+        <v>734393</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -4446,34 +3927,34 @@
         <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>677</v>
+        <v>438</v>
       </c>
       <c r="I10" s="7">
-        <v>395437</v>
+        <v>505167</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="M10" s="7">
-        <v>677</v>
+        <v>438</v>
       </c>
       <c r="N10" s="7">
-        <v>395437</v>
+        <v>505167</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4495,34 +3976,34 @@
         <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>498</v>
+        <v>295</v>
       </c>
       <c r="I11" s="7">
-        <v>419670</v>
+        <v>224318</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="M11" s="7">
-        <v>498</v>
+        <v>295</v>
       </c>
       <c r="N11" s="7">
-        <v>419670</v>
+        <v>224318</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4544,10 +4025,10 @@
         <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>1175</v>
+        <v>733</v>
       </c>
       <c r="I12" s="7">
-        <v>815107</v>
+        <v>729485</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -4559,10 +4040,10 @@
         <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>1175</v>
+        <v>733</v>
       </c>
       <c r="N12" s="7">
-        <v>815107</v>
+        <v>729485</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -4595,34 +4076,34 @@
         <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>438</v>
+        <v>765</v>
       </c>
       <c r="I13" s="7">
-        <v>410350</v>
+        <v>444437</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="M13" s="7">
-        <v>438</v>
+        <v>765</v>
       </c>
       <c r="N13" s="7">
-        <v>410350</v>
+        <v>444437</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4644,34 +4125,34 @@
         <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>295</v>
+        <v>412</v>
       </c>
       <c r="I14" s="7">
-        <v>245436</v>
+        <v>412175</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="M14" s="7">
-        <v>295</v>
+        <v>412</v>
       </c>
       <c r="N14" s="7">
-        <v>245436</v>
+        <v>412175</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4693,10 +4174,10 @@
         <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>733</v>
+        <v>1177</v>
       </c>
       <c r="I15" s="7">
-        <v>655786</v>
+        <v>856612</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -4708,10 +4189,10 @@
         <v>19</v>
       </c>
       <c r="M15" s="7">
-        <v>733</v>
+        <v>1177</v>
       </c>
       <c r="N15" s="7">
-        <v>655786</v>
+        <v>856612</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -4725,7 +4206,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4744,34 +4225,34 @@
         <v>11</v>
       </c>
       <c r="H16" s="7">
-        <v>765</v>
+        <v>2467</v>
       </c>
       <c r="I16" s="7">
-        <v>488687</v>
+        <v>1583137</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="M16" s="7">
-        <v>765</v>
+        <v>2467</v>
       </c>
       <c r="N16" s="7">
-        <v>488687</v>
+        <v>1583137</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4793,34 +4274,34 @@
         <v>11</v>
       </c>
       <c r="H17" s="7">
-        <v>412</v>
+        <v>1563</v>
       </c>
       <c r="I17" s="7">
-        <v>402066</v>
+        <v>1247819</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="M17" s="7">
-        <v>412</v>
+        <v>1563</v>
       </c>
       <c r="N17" s="7">
-        <v>402066</v>
+        <v>1247819</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4842,10 +4323,10 @@
         <v>11</v>
       </c>
       <c r="H18" s="7">
-        <v>1177</v>
+        <v>4030</v>
       </c>
       <c r="I18" s="7">
-        <v>890753</v>
+        <v>2830956</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -4857,10 +4338,10 @@
         <v>19</v>
       </c>
       <c r="M18" s="7">
-        <v>1177</v>
+        <v>4030</v>
       </c>
       <c r="N18" s="7">
-        <v>890753</v>
+        <v>2830956</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>19</v>
@@ -4873,165 +4354,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>0</v>
-      </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H19" s="7">
-        <v>2467</v>
-      </c>
-      <c r="I19" s="7">
-        <v>1582967</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="M19" s="7">
-        <v>2467</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1582967</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="7">
-        <v>0</v>
-      </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1563</v>
-      </c>
-      <c r="I20" s="7">
-        <v>1327161</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1563</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1327161</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>0</v>
-      </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H21" s="7">
-        <v>4030</v>
-      </c>
-      <c r="I21" s="7">
-        <v>2910128</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="7">
-        <v>4030</v>
-      </c>
-      <c r="N21" s="7">
-        <v>2910128</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>54</v>
+      <c r="A19" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
